--- a/ShopClues_TestCases.xlsx
+++ b/ShopClues_TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcsglobal-my.sharepoint.com/personal/drashti_patel_kcsitglobal_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Krish Compusoft Services Pvt Ltd\QA-Trainning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F55D314-3D5C-4F7A-89B0-51FC300A1754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB5143-3AC6-448F-A79D-85CED6BD3565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{502B9D36-A2E0-4068-B96E-9E2EFAFF4694}"/>
   </bookViews>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE48F1-3A70-46D0-B518-67AC0FB7E661}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AF9A73-9B6C-4989-B143-D1D8234EFE39}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4102,6 +4102,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBEF9EB5F4CAED419B3BAABCBA82656F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa031756a0ee3a8ad52dbcf3eaf5bc28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7c312a9e-bcd1-40f7-89ed-827dbe02b517" xmlns:ns4="5a35b09b-4b5c-424f-b410-e329cf7d3a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2309c882f2b0792bdadcac80f011d8c" ns3:_="" ns4:_="">
     <xsd:import namespace="7c312a9e-bcd1-40f7-89ed-827dbe02b517"/>
@@ -4316,36 +4331,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF7E874C-9198-4750-B0B8-5326980B5478}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9194744D-117A-4C6F-BA1B-D5DD01E0F92C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7c312a9e-bcd1-40f7-89ed-827dbe02b517"/>
-    <ds:schemaRef ds:uri="5a35b09b-4b5c-424f-b410-e329cf7d3a05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4368,9 +4357,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9194744D-117A-4C6F-BA1B-D5DD01E0F92C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF7E874C-9198-4750-B0B8-5326980B5478}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7c312a9e-bcd1-40f7-89ed-827dbe02b517"/>
+    <ds:schemaRef ds:uri="5a35b09b-4b5c-424f-b410-e329cf7d3a05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>